--- a/data/raw/bbnp_documentation_res_sf.xlsx
+++ b/data/raw/bbnp_documentation_res_sf.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_105F5A59116AF55DEB1A79897246365EC044305D" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="495" windowWidth="18120" windowHeight="9690" tabRatio="708"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="708" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info and Disclaimer" sheetId="13" r:id="rId1"/>
@@ -1658,7 +1659,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1860,6 +1861,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1876,7 +1880,13 @@
     <xdr:ext cx="7589520" cy="12757785"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3090,7 +3100,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3123,9 +3133,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3158,6 +3185,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3333,10 +3377,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="N2:P56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -3439,13 +3483,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:XFD14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4048,10 +4094,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:R92"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5760,7 +5808,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:F33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6179,7 +6227,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
